--- a/biology/Zoologie/Centruroides_margaritatus/Centruroides_margaritatus.xlsx
+++ b/biology/Zoologie/Centruroides_margaritatus/Centruroides_margaritatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centruroides margaritatus est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Colombie, en Équateur et dans le Nord du Pérou[1].
-Elle a été introduite en Jamaïque et à Cuba[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Colombie, en Équateur et dans le Nord du Pérou.
+Elle a été introduite en Jamaïque et à Cuba.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Centruroides margaritatus mesure de 65 à 100 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Centruroides margaritatus mesure de 65 à 100 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gervais, 1841 : « Arachnides. » Voyage autour du monde exécuté pendant les années 1836 et 1837 sur la corvette La Bonite, commandée par M. Vaillant. Publié par ordre du roi sous les auspices du Département de la Marine. Zoologie. Aptères, Paris, Arthus Bertrand, p. 281–285.</t>
         </is>
